--- a/야구K6_ItemTablev1.0.29.xlsx
+++ b/야구K6_ItemTablev1.0.29.xlsx
@@ -1183,7 +1183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5107" uniqueCount="1046">
   <si>
     <t>//</t>
   </si>
@@ -4774,10 +4774,6 @@
   </si>
   <si>
     <t>param9</t>
-  </si>
-  <si>
-    <t>fa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -51927,10 +51923,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="K370" sqref="K370"/>
+      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -53190,8 +53186,8 @@
       <c r="U25" s="48">
         <v>100</v>
       </c>
-      <c r="V25" s="48" t="s">
-        <v>1046</v>
+      <c r="V25" s="48">
+        <v>0</v>
       </c>
       <c r="W25" s="48">
         <v>0</v>
